--- a/examples/sources/data/unsolved/to_schedule/2019-04-22.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-04-22.xlsx
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>43577</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3324,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="2">
         <v>43577</v>
@@ -5100,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O99" s="2">
         <v>43577</v>
@@ -6799,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N137">
         <v>1</v>
